--- a/DATA_goal/Junction_Flooding_312.xlsx
+++ b/DATA_goal/Junction_Flooding_312.xlsx
@@ -446,12 +446,12 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -469,8 +469,8 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44993.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.75</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.47</v>
+        <v>34.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.1</v>
+        <v>51.01</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.3</v>
+        <v>233</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.39</v>
+        <v>43.92</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.08</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.52</v>
+        <v>25.16</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.33</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.52</v>
+        <v>45.21</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44993.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.48</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.21</v>
+        <v>42.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.81</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.29</v>
+        <v>152.92</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.95</v>
+        <v>29.51</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.54</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.83</v>
+        <v>38.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44993.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.14</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.79</v>
+        <v>47.9</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.93</v>
+        <v>39.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.6</v>
+        <v>66.02</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>255.92</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>48.34</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>2.68</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.27</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>3.21</v>
+        <v>32.09</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.76</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.07</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.98</v>
+        <v>59.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44993.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.59</v>
+        <v>45.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.76</v>
+        <v>37.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.52</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.39</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>24.45</v>
+        <v>244.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.63</v>
+        <v>46.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.11</v>
+        <v>31.1</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.15</v>
+        <v>31.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.92</v>
+        <v>59.22</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_312.xlsx
+++ b/DATA_goal/Junction_Flooding_312.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44993.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.18</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.07</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.75</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.69</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.01</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.25</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.61</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.87</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.6</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.07</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.09</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.5</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>233</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.92</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.08</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.16</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.65</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.33</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.21</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.1</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44993.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.45</v>
+        <v>13.452</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.71</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.93</v>
+        <v>28.926</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.48</v>
+        <v>23.478</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.59</v>
+        <v>10.586</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>42.06</v>
+        <v>42.064</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>6.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.39</v>
+        <v>10.387</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.58</v>
+        <v>11.584</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.07</v>
+        <v>12.065</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.38</v>
+        <v>3.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.81</v>
+        <v>14.808</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.109</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.542</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.92</v>
+        <v>152.917</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.51</v>
+        <v>29.507</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.54</v>
+        <v>19.543</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.23</v>
+        <v>10.233</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>1.97</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20</v>
+        <v>19.998</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.81</v>
+        <v>7.805</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.138999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.94</v>
+        <v>11.938</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.29</v>
+        <v>38.293</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.38</v>
+        <v>5.384</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>22.1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.14</v>
+        <v>16.142</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.51</v>
+        <v>1.511</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>47.9</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.25</v>
+        <v>39.254</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.39</v>
+        <v>17.391</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.02</v>
+        <v>66.017</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.8</v>
+        <v>11.804</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.54</v>
+        <v>17.537</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.24</v>
+        <v>19.237</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.21</v>
+        <v>20.208</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.555</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.55</v>
+        <v>24.552</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.64</v>
+        <v>14.639</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.105</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>255.92</v>
+        <v>255.921</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>48.34</v>
+        <v>48.337</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>32.42</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.05</v>
+        <v>17.053</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.68</v>
+        <v>2.676</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.09</v>
+        <v>32.092</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.57</v>
+        <v>12.566</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.76</v>
+        <v>14.757</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>20.07</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>59.84</v>
+        <v>59.839</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.98</v>
+        <v>8.977</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.96</v>
+        <v>19.958</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44993.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.98</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_312.xlsx
+++ b/DATA_goal/Junction_Flooding_312.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44993.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.54</v>
+        <v>15.539</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.26</v>
+        <v>1.263</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.87</v>
+        <v>45.875</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.64</v>
+        <v>37.636</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.64</v>
+        <v>16.636</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.23999999999999</v>
+        <v>65.239</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.34</v>
+        <v>11.344</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.83</v>
+        <v>16.833</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.43</v>
+        <v>18.432</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.39</v>
+        <v>19.388</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.31</v>
+        <v>5.314</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.53</v>
+        <v>23.529</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.96</v>
+        <v>13.959</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.858</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.857</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.48</v>
+        <v>244.483</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.29</v>
+        <v>46.285</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.1</v>
+        <v>31.096</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>16.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.48</v>
+        <v>2.481</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.46</v>
+        <v>31.464</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.98</v>
+        <v>11.983</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.08</v>
+        <v>14.079</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.27</v>
+        <v>19.269</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.22</v>
+        <v>59.217</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.6</v>
+        <v>8.602</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44993.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>52.96</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>192.98</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_312.xlsx
+++ b/DATA_goal/Junction_Flooding_312.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44993.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.139</v>
+        <v>21.14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.539</v>
+        <v>15.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.263</v>
+        <v>1.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.875</v>
+        <v>45.87</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.636</v>
+        <v>37.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.636</v>
+        <v>16.64</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.239</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.596</v>
+        <v>25.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.344</v>
+        <v>11.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.833</v>
+        <v>16.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.432</v>
+        <v>18.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.388</v>
+        <v>19.39</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.314</v>
+        <v>5.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.542</v>
+        <v>16.54</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.529</v>
+        <v>23.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.959</v>
+        <v>13.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.858</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.857</v>
+        <v>0.86</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.483</v>
+        <v>244.48</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.285</v>
+        <v>46.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.269</v>
+        <v>15.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.096</v>
+        <v>31.1</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>16.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.481</v>
+        <v>2.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.464</v>
+        <v>31.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.487</v>
+        <v>13.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.983</v>
+        <v>11.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.079</v>
+        <v>14.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.269</v>
+        <v>19.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.217</v>
+        <v>59.22</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.602</v>
+        <v>8.6</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44993.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>29.93</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.98</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.19</v>
       </c>
     </row>
   </sheetData>
